--- a/results/multiclass/54/automl.xlsx
+++ b/results/multiclass/54/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.779 (0.773 Â± 0.007)</t>
+          <t>0.779 (0.773 ± 0.007)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:02:36 (00:04:31 Â± 00:01:14)</t>
+          <t>00:02:36 (00:04:31 ± 00:01:14)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:07 Â± 00:00:04)</t>
+          <t>00:00:01 (00:00:07 ± 00:00:04)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.850 (0.799 Â± 0.029)</t>
+          <t>0.850 (0.799 ± 0.029)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:11 (00:00:17 Â± 00:00:02)</t>
+          <t>00:00:11 (00:00:17 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.830 (0.758 Â± 0.035)</t>
+          <t>0.830 (0.758 ± 0.035)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:26 (00:00:43 Â± 00:00:10)</t>
+          <t>00:00:26 (00:00:43 ± 00:00:10)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.876 (0.819 Â± 0.036)</t>
+          <t>0.876 (0.819 ± 0.036)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:12 (00:05:19 Â± 00:00:08)</t>
+          <t>00:05:12 (00:05:19 ± 00:00:08)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.868 (0.836 Â± 0.024)</t>
+          <t>0.868 (0.836 ± 0.024)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:54 (00:04:58 Â± 00:00:02)</t>
+          <t>00:04:54 (00:04:58 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,17 +631,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.786 (0.730 Â± 0.026)</t>
+          <t>0.786 (0.730 ± 0.026)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:04 Â± 00:00:02)</t>
+          <t>00:05:00 (00:05:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -663,17 +663,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.888 (0.840 Â± 0.030)</t>
+          <t>0.888 (0.840 ± 0.030)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:02:27 (00:05:19 Â± 00:02:42)</t>
+          <t>00:02:27 (00:05:19 ± 00:02:42)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -695,17 +695,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.808 (0.758 Â± 0.031)</t>
+          <t>0.808 (0.758 ± 0.031)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.827 (0.777 Â± 0.031)</t>
+          <t>0.827 (0.777 ± 0.031)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.863 (0.776 Â± 0.077)</t>
+          <t>0.863 (0.776 ± 0.077)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:05 Â± 00:00:00)</t>
+          <t>00:05:01 (00:05:05 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -791,17 +791,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.821 (0.752 Â± 0.033)</t>
+          <t>0.821 (0.752 ± 0.033)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:02:01 (00:02:33 Â± 00:00:13)</t>
+          <t>00:02:01 (00:02:33 ± 00:00:13)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -823,17 +823,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.838 (0.719 Â± 0.049)</t>
+          <t>0.838 (0.719 ± 0.049)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:02 (00:00:03 Â± 00:00:00)</t>
+          <t>00:00:02 (00:00:03 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.863 (0.793 Â± 0.032)</t>
+          <t>0.863 (0.793 ± 0.032)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:29 (00:00:32 Â± 00:00:01)</t>
+          <t>00:00:29 (00:00:32 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -887,17 +887,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.885 (0.850 Â± 0.022)</t>
+          <t>0.885 (0.850 ± 0.022)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:00:27 (00:00:28 Â± 00:00:02)</t>
+          <t>00:00:27 (00:00:28 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -919,17 +919,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.888 (0.846 Â± 0.023)</t>
+          <t>0.888 (0.846 ± 0.023)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00:16 (00:00:17 Â± 00:00:00)</t>
+          <t>00:00:16 (00:00:17 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -951,17 +951,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.880 (0.798 Â± 0.034)</t>
+          <t>0.880 (0.798 ± 0.034)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:00:21 (00:02:46 Â± 00:01:49)</t>
+          <t>00:00:21 (00:02:46 ± 00:01:49)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
